--- a/mundialcalendario.xlsx
+++ b/mundialcalendario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="7700" yWindow="4040" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="193">
   <si>
     <t>Grupo A</t>
   </si>
@@ -499,13 +499,112 @@
   </si>
   <si>
     <t>Chile</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Camerun</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Grecia</t>
+  </si>
+  <si>
+    <t>Costa de marfil</t>
+  </si>
+  <si>
+    <t>Japon</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Costa rica</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>Suiza</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Alemania</t>
+  </si>
+  <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
+    <t>Belgica</t>
+  </si>
+  <si>
+    <t>Argelia</t>
+  </si>
+  <si>
+    <t>Rusia</t>
+  </si>
+  <si>
+    <t>Corea del sur</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>insert into paises (pais,grupo) values(%</t>
+  </si>
+  <si>
+    <t>% , %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -525,6 +624,24 @@
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -568,8 +685,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -580,7 +701,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -910,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -921,878 +1046,1455 @@
     <col min="1" max="1" width="55.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:15" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17">
+    <row r="2" spans="1:15" ht="17">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="str">
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="str">
         <f>LEFT(A2,5)</f>
         <v>12/06</v>
       </c>
-      <c r="G2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="17">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F57" si="0">LEFT(A3,5)</f>
-        <v>13/06</v>
-      </c>
       <c r="G3" t="s">
         <v>70</v>
       </c>
       <c r="H3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="17">
+      <c r="I3" t="str">
+        <f>LEFT(A3,5)</f>
+        <v>13/06</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="17">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>17/06</v>
-      </c>
       <c r="G4" t="s">
         <v>68</v>
       </c>
       <c r="H4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="17">
+      <c r="I4" t="str">
+        <f>LEFT(A4,5)</f>
+        <v>17/06</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N4" t="s">
+        <v>182</v>
+      </c>
+      <c r="O4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="17">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>18/06</v>
-      </c>
       <c r="G5" t="s">
         <v>73</v>
       </c>
       <c r="H5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="17">
+      <c r="I5" t="str">
+        <f>LEFT(A5,5)</f>
+        <v>18/06</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5" t="s">
+        <v>161</v>
+      </c>
+      <c r="M5" t="s">
+        <v>192</v>
+      </c>
+      <c r="N5" t="s">
+        <v>182</v>
+      </c>
+      <c r="O5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="17">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>23/06</v>
-      </c>
       <c r="G6" t="s">
         <v>73</v>
       </c>
       <c r="H6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="17">
+      <c r="I6" t="str">
+        <f>LEFT(A6,5)</f>
+        <v>23/06</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>191</v>
+      </c>
+      <c r="L6" t="s">
+        <v>162</v>
+      </c>
+      <c r="M6" t="s">
+        <v>192</v>
+      </c>
+      <c r="N6" t="s">
+        <v>183</v>
+      </c>
+      <c r="O6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="17">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>23/06</v>
-      </c>
       <c r="G7" t="s">
         <v>65</v>
       </c>
       <c r="H7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="17">
+      <c r="I7" t="str">
+        <f>LEFT(A7,5)</f>
+        <v>23/06</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M7" t="s">
+        <v>192</v>
+      </c>
+      <c r="N7" t="s">
+        <v>183</v>
+      </c>
+      <c r="O7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="17">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>13/06</v>
-      </c>
       <c r="G8" t="s">
         <v>75</v>
       </c>
       <c r="H8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="17">
+      <c r="I8" t="str">
+        <f>LEFT(A8,5)</f>
+        <v>13/06</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" t="s">
+        <v>159</v>
+      </c>
+      <c r="M8" t="s">
+        <v>192</v>
+      </c>
+      <c r="N8" t="s">
+        <v>183</v>
+      </c>
+      <c r="O8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>14/06</v>
-      </c>
       <c r="G9" t="s">
         <v>77</v>
       </c>
       <c r="H9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="17">
+      <c r="I9" t="str">
+        <f>LEFT(A9,5)</f>
+        <v>14/06</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>191</v>
+      </c>
+      <c r="L9" t="s">
+        <v>163</v>
+      </c>
+      <c r="M9" t="s">
+        <v>192</v>
+      </c>
+      <c r="N9" t="s">
+        <v>183</v>
+      </c>
+      <c r="O9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="17">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>19/06</v>
-      </c>
       <c r="G10" t="s">
         <v>75</v>
       </c>
       <c r="H10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="17">
+      <c r="I10" t="str">
+        <f>LEFT(A10,5)</f>
+        <v>19/06</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>191</v>
+      </c>
+      <c r="L10" t="s">
+        <v>164</v>
+      </c>
+      <c r="M10" t="s">
+        <v>192</v>
+      </c>
+      <c r="N10" t="s">
+        <v>184</v>
+      </c>
+      <c r="O10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="17">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>18/06</v>
-      </c>
       <c r="G11" t="s">
         <v>80</v>
       </c>
       <c r="H11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="17">
+      <c r="I11" t="str">
+        <f>LEFT(A11,5)</f>
+        <v>18/06</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>191</v>
+      </c>
+      <c r="L11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M11" t="s">
+        <v>192</v>
+      </c>
+      <c r="N11" t="s">
+        <v>184</v>
+      </c>
+      <c r="O11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="17">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>23/06</v>
-      </c>
       <c r="G12" t="s">
         <v>80</v>
       </c>
       <c r="H12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="17">
+      <c r="I12" t="str">
+        <f>LEFT(A12,5)</f>
+        <v>23/06</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>191</v>
+      </c>
+      <c r="L12" t="s">
+        <v>166</v>
+      </c>
+      <c r="M12" t="s">
+        <v>192</v>
+      </c>
+      <c r="N12" t="s">
+        <v>184</v>
+      </c>
+      <c r="O12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="17">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>23/06</v>
-      </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="17">
+      <c r="I13" t="str">
+        <f>LEFT(A13,5)</f>
+        <v>23/06</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>191</v>
+      </c>
+      <c r="L13" t="s">
+        <v>167</v>
+      </c>
+      <c r="M13" t="s">
+        <v>192</v>
+      </c>
+      <c r="N13" t="s">
+        <v>184</v>
+      </c>
+      <c r="O13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="17">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>14/06</v>
-      </c>
       <c r="G14" t="s">
         <v>82</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="17">
+      <c r="I14" t="str">
+        <f>LEFT(A14,5)</f>
+        <v>14/06</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s">
+        <v>191</v>
+      </c>
+      <c r="L14" t="s">
+        <v>168</v>
+      </c>
+      <c r="M14" t="s">
+        <v>192</v>
+      </c>
+      <c r="N14" t="s">
+        <v>185</v>
+      </c>
+      <c r="O14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="17">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>15/06</v>
-      </c>
       <c r="G15" t="s">
         <v>84</v>
       </c>
       <c r="H15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="17">
+      <c r="I15" t="str">
+        <f>LEFT(A15,5)</f>
+        <v>15/06</v>
+      </c>
+      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>191</v>
+      </c>
+      <c r="L15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" t="s">
+        <v>192</v>
+      </c>
+      <c r="N15" t="s">
+        <v>185</v>
+      </c>
+      <c r="O15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="17">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>19/06</v>
-      </c>
       <c r="G16" t="s">
         <v>82</v>
       </c>
       <c r="H16" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="17">
+      <c r="I16" t="str">
+        <f>LEFT(A16,5)</f>
+        <v>19/06</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>191</v>
+      </c>
+      <c r="L16" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" t="s">
+        <v>192</v>
+      </c>
+      <c r="N16" t="s">
+        <v>185</v>
+      </c>
+      <c r="O16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="17">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>20/06</v>
-      </c>
       <c r="G17" t="s">
         <v>87</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="17">
+      <c r="I17" t="str">
+        <f>LEFT(A17,5)</f>
+        <v>20/06</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>191</v>
+      </c>
+      <c r="L17" t="s">
+        <v>170</v>
+      </c>
+      <c r="M17" t="s">
+        <v>192</v>
+      </c>
+      <c r="N17" t="s">
+        <v>185</v>
+      </c>
+      <c r="O17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="17">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>24/06</v>
-      </c>
       <c r="G18" t="s">
         <v>87</v>
       </c>
       <c r="H18" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="17">
+      <c r="I18" t="str">
+        <f>LEFT(A18,5)</f>
+        <v>24/06</v>
+      </c>
+      <c r="J18">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" t="s">
+        <v>192</v>
+      </c>
+      <c r="N18" t="s">
+        <v>186</v>
+      </c>
+      <c r="O18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="17">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>24/06</v>
-      </c>
       <c r="G19" t="s">
         <v>89</v>
       </c>
       <c r="H19" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="17">
+      <c r="I19" t="str">
+        <f>LEFT(A19,5)</f>
+        <v>24/06</v>
+      </c>
+      <c r="J19">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L19" t="s">
+        <v>129</v>
+      </c>
+      <c r="M19" t="s">
+        <v>192</v>
+      </c>
+      <c r="N19" t="s">
+        <v>186</v>
+      </c>
+      <c r="O19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="17">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>14/06</v>
-      </c>
       <c r="G20" t="s">
         <v>90</v>
       </c>
       <c r="H20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="17">
+      <c r="I20" t="str">
+        <f>LEFT(A20,5)</f>
+        <v>14/06</v>
+      </c>
+      <c r="J20">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M20" t="s">
+        <v>192</v>
+      </c>
+      <c r="N20" t="s">
+        <v>186</v>
+      </c>
+      <c r="O20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="17">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>15/06</v>
-      </c>
       <c r="G21" t="s">
         <v>92</v>
       </c>
       <c r="H21" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="17">
+      <c r="I21" t="str">
+        <f>LEFT(A21,5)</f>
+        <v>15/06</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s">
+        <v>191</v>
+      </c>
+      <c r="L21" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21" t="s">
+        <v>192</v>
+      </c>
+      <c r="N21" t="s">
+        <v>186</v>
+      </c>
+      <c r="O21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="17">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>19/06</v>
-      </c>
       <c r="G22" t="s">
         <v>90</v>
       </c>
       <c r="H22" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="17">
+      <c r="I22" t="str">
+        <f>LEFT(A22,5)</f>
+        <v>19/06</v>
+      </c>
+      <c r="J22">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>191</v>
+      </c>
+      <c r="L22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M22" t="s">
+        <v>192</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="17">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>20/06</v>
-      </c>
       <c r="G23" t="s">
         <v>95</v>
       </c>
       <c r="H23" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="17">
+      <c r="I23" t="str">
+        <f>LEFT(A23,5)</f>
+        <v>20/06</v>
+      </c>
+      <c r="J23">
+        <v>22</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
+        <v>128</v>
+      </c>
+      <c r="M23" t="s">
+        <v>192</v>
+      </c>
+      <c r="N23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="17">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>24/06</v>
-      </c>
       <c r="G24" t="s">
         <v>95</v>
       </c>
       <c r="H24" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="17">
+      <c r="I24" t="str">
+        <f>LEFT(A24,5)</f>
+        <v>24/06</v>
+      </c>
+      <c r="J24">
+        <v>23</v>
+      </c>
+      <c r="K24" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s">
+        <v>174</v>
+      </c>
+      <c r="M24" t="s">
+        <v>192</v>
+      </c>
+      <c r="N24" t="s">
+        <v>187</v>
+      </c>
+      <c r="O24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="17">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>24/06</v>
-      </c>
       <c r="G25" t="s">
         <v>132</v>
       </c>
       <c r="H25" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="17">
+      <c r="I25" t="str">
+        <f>LEFT(A25,5)</f>
+        <v>24/06</v>
+      </c>
+      <c r="J25">
+        <v>24</v>
+      </c>
+      <c r="K25" t="s">
+        <v>191</v>
+      </c>
+      <c r="L25" t="s">
+        <v>175</v>
+      </c>
+      <c r="M25" t="s">
+        <v>192</v>
+      </c>
+      <c r="N25" t="s">
+        <v>187</v>
+      </c>
+      <c r="O25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="17">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>15/06</v>
-      </c>
       <c r="G26" t="s">
         <v>97</v>
       </c>
       <c r="H26" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="17">
+      <c r="I26" t="str">
+        <f>LEFT(A26,5)</f>
+        <v>15/06</v>
+      </c>
+      <c r="J26">
+        <v>25</v>
+      </c>
+      <c r="K26" t="s">
+        <v>191</v>
+      </c>
+      <c r="L26" t="s">
+        <v>176</v>
+      </c>
+      <c r="M26" t="s">
+        <v>192</v>
+      </c>
+      <c r="N26" t="s">
+        <v>188</v>
+      </c>
+      <c r="O26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="17">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>15/06</v>
-      </c>
       <c r="G27" t="s">
         <v>99</v>
       </c>
       <c r="H27" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="17">
+      <c r="I27" t="str">
+        <f>LEFT(A27,5)</f>
+        <v>15/06</v>
+      </c>
+      <c r="J27">
+        <v>26</v>
+      </c>
+      <c r="K27" t="s">
+        <v>191</v>
+      </c>
+      <c r="L27" t="s">
+        <v>130</v>
+      </c>
+      <c r="M27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N27" t="s">
+        <v>188</v>
+      </c>
+      <c r="O27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="17">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
-      <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>20/06</v>
-      </c>
       <c r="G28" t="s">
         <v>97</v>
       </c>
       <c r="H28" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="17">
+      <c r="I28" t="str">
+        <f>LEFT(A28,5)</f>
+        <v>20/06</v>
+      </c>
+      <c r="J28">
+        <v>27</v>
+      </c>
+      <c r="K28" t="s">
+        <v>191</v>
+      </c>
+      <c r="L28" t="s">
+        <v>131</v>
+      </c>
+      <c r="M28" t="s">
+        <v>192</v>
+      </c>
+      <c r="N28" t="s">
+        <v>188</v>
+      </c>
+      <c r="O28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="17">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
-      <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>21/06</v>
-      </c>
       <c r="G29" t="s">
         <v>102</v>
       </c>
       <c r="H29" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="17">
+      <c r="I29" t="str">
+        <f>LEFT(A29,5)</f>
+        <v>21/06</v>
+      </c>
+      <c r="J29">
+        <v>28</v>
+      </c>
+      <c r="K29" t="s">
+        <v>191</v>
+      </c>
+      <c r="L29" t="s">
+        <v>177</v>
+      </c>
+      <c r="M29" t="s">
+        <v>192</v>
+      </c>
+      <c r="N29" t="s">
+        <v>188</v>
+      </c>
+      <c r="O29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="17">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
-      <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>25/06</v>
-      </c>
       <c r="G30" t="s">
         <v>102</v>
       </c>
       <c r="H30" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="17">
+      <c r="I30" t="str">
+        <f>LEFT(A30,5)</f>
+        <v>25/06</v>
+      </c>
+      <c r="J30">
+        <v>29</v>
+      </c>
+      <c r="K30" t="s">
+        <v>191</v>
+      </c>
+      <c r="L30" t="s">
+        <v>178</v>
+      </c>
+      <c r="M30" t="s">
+        <v>192</v>
+      </c>
+      <c r="N30" t="s">
+        <v>189</v>
+      </c>
+      <c r="O30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="17">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
-      <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>25/06</v>
-      </c>
       <c r="G31" t="s">
         <v>129</v>
       </c>
       <c r="H31" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="17">
+      <c r="I31" t="str">
+        <f>LEFT(A31,5)</f>
+        <v>25/06</v>
+      </c>
+      <c r="J31">
+        <v>30</v>
+      </c>
+      <c r="K31" t="s">
+        <v>191</v>
+      </c>
+      <c r="L31" t="s">
+        <v>179</v>
+      </c>
+      <c r="M31" t="s">
+        <v>192</v>
+      </c>
+      <c r="N31" t="s">
+        <v>189</v>
+      </c>
+      <c r="O31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="17">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
-      <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v>16/06</v>
-      </c>
       <c r="G32" t="s">
         <v>104</v>
       </c>
       <c r="H32" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="17">
+      <c r="I32" t="str">
+        <f>LEFT(A32,5)</f>
+        <v>16/06</v>
+      </c>
+      <c r="J32">
+        <v>31</v>
+      </c>
+      <c r="K32" t="s">
+        <v>191</v>
+      </c>
+      <c r="L32" t="s">
+        <v>180</v>
+      </c>
+      <c r="M32" t="s">
+        <v>192</v>
+      </c>
+      <c r="N32" t="s">
+        <v>189</v>
+      </c>
+      <c r="O32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="17">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
-      <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>16/06</v>
-      </c>
       <c r="G33" t="s">
         <v>106</v>
       </c>
       <c r="H33" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="17">
+      <c r="I33" t="str">
+        <f>LEFT(A33,5)</f>
+        <v>16/06</v>
+      </c>
+      <c r="J33">
+        <v>32</v>
+      </c>
+      <c r="K33" t="s">
+        <v>191</v>
+      </c>
+      <c r="L33" t="s">
+        <v>181</v>
+      </c>
+      <c r="M33" t="s">
+        <v>192</v>
+      </c>
+      <c r="N33" t="s">
+        <v>189</v>
+      </c>
+      <c r="O33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="17">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
-      <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>21/06</v>
-      </c>
       <c r="G34" t="s">
         <v>104</v>
       </c>
       <c r="H34" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="17">
+      <c r="I34" t="str">
+        <f>LEFT(A34,5)</f>
+        <v>21/06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="17">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
-      <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>22/06</v>
-      </c>
       <c r="G35" t="s">
         <v>109</v>
       </c>
       <c r="H35" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="17">
+      <c r="I35" t="str">
+        <f>LEFT(A35,5)</f>
+        <v>22/06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="17">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
-      <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>25/06</v>
-      </c>
       <c r="G36" t="s">
         <v>109</v>
       </c>
       <c r="H36" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="17">
+      <c r="I36" t="str">
+        <f>LEFT(A36,5)</f>
+        <v>25/06</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="17">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
-      <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>25/06</v>
-      </c>
       <c r="G37" t="s">
         <v>128</v>
       </c>
       <c r="H37" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="17">
+      <c r="I37" t="str">
+        <f>LEFT(A37,5)</f>
+        <v>25/06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="17">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
-      <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>16/06</v>
-      </c>
       <c r="G38" t="s">
         <v>111</v>
       </c>
       <c r="H38" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="17">
+      <c r="I38" t="str">
+        <f>LEFT(A38,5)</f>
+        <v>16/06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="17">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
-      <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>17/06</v>
-      </c>
       <c r="G39" t="s">
         <v>113</v>
       </c>
       <c r="H39" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="17">
+      <c r="I39" t="str">
+        <f>LEFT(A39,5)</f>
+        <v>17/06</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="17">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
-      <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>21/06</v>
-      </c>
       <c r="G40" t="s">
         <v>111</v>
       </c>
       <c r="H40" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="17">
+      <c r="I40" t="str">
+        <f>LEFT(A40,5)</f>
+        <v>21/06</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="17">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
-      <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>22/06</v>
-      </c>
       <c r="G41" t="s">
         <v>116</v>
       </c>
       <c r="H41" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="17">
+      <c r="I41" t="str">
+        <f>LEFT(A41,5)</f>
+        <v>22/06</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="17">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
-      <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>26/06</v>
-      </c>
       <c r="G42" t="s">
         <v>116</v>
       </c>
       <c r="H42" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="17">
+      <c r="I42" t="str">
+        <f>LEFT(A42,5)</f>
+        <v>26/06</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="17">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
-      <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v>26/06</v>
-      </c>
       <c r="G43" t="s">
         <v>130</v>
       </c>
       <c r="H43" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="17">
+      <c r="I43" t="str">
+        <f>LEFT(A43,5)</f>
+        <v>26/06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="17">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
-      <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v>17/06</v>
-      </c>
       <c r="G44" t="s">
         <v>118</v>
       </c>
       <c r="H44" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="17">
+      <c r="I44" t="str">
+        <f>LEFT(A44,5)</f>
+        <v>17/06</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="17">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
-      <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>18/06</v>
-      </c>
       <c r="G45" t="s">
         <v>120</v>
       </c>
       <c r="H45" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="17">
+      <c r="I45" t="str">
+        <f>LEFT(A45,5)</f>
+        <v>18/06</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="17">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
-      <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v>23/06</v>
-      </c>
       <c r="G46" t="s">
         <v>118</v>
       </c>
       <c r="H46" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="17">
+      <c r="I46" t="str">
+        <f>LEFT(A46,5)</f>
+        <v>23/06</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="17">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
-      <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v>22/06</v>
-      </c>
       <c r="G47" t="s">
         <v>123</v>
       </c>
       <c r="H47" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="17">
+      <c r="I47" t="str">
+        <f>LEFT(A47,5)</f>
+        <v>22/06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="17">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
-      <c r="F48" t="str">
-        <f t="shared" si="0"/>
-        <v>26/06</v>
-      </c>
       <c r="G48" t="s">
         <v>123</v>
       </c>
       <c r="H48" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="17">
+      <c r="I48" t="str">
+        <f>LEFT(A48,5)</f>
+        <v>26/06</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
-      <c r="F49" t="str">
-        <f t="shared" si="0"/>
-        <v>26/06</v>
-      </c>
       <c r="G49" t="s">
         <v>125</v>
       </c>
       <c r="H49" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="17">
+      <c r="I49" t="str">
+        <f>LEFT(A49,5)</f>
+        <v>26/06</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -1802,18 +2504,18 @@
       <c r="E50" s="4">
         <v>49</v>
       </c>
-      <c r="F50" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>28/06</v>
-      </c>
       <c r="G50" s="4" t="s">
         <v>134</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="17">
+      <c r="I50" s="4" t="str">
+        <f>LEFT(A50,5)</f>
+        <v>28/06</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="17">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -1821,18 +2523,18 @@
       <c r="E51" s="4">
         <v>50</v>
       </c>
-      <c r="F51" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>28/06</v>
-      </c>
       <c r="G51" s="4" t="s">
         <v>136</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="17">
+      <c r="I51" s="4" t="str">
+        <f>LEFT(A51,5)</f>
+        <v>28/06</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="17">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -1840,18 +2542,18 @@
       <c r="E52" s="4">
         <v>51</v>
       </c>
-      <c r="F52" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>29/06</v>
-      </c>
       <c r="G52" s="4" t="s">
         <v>138</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="17">
+      <c r="I52" s="4" t="str">
+        <f>LEFT(A52,5)</f>
+        <v>29/06</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="17">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -1859,18 +2561,18 @@
       <c r="E53" s="4">
         <v>52</v>
       </c>
-      <c r="F53" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>29/06</v>
-      </c>
       <c r="G53" s="4" t="s">
         <v>140</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="17">
+      <c r="I53" s="4" t="str">
+        <f>LEFT(A53,5)</f>
+        <v>29/06</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="17">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -1878,18 +2580,18 @@
       <c r="E54" s="4">
         <v>53</v>
       </c>
-      <c r="F54" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>30/06</v>
-      </c>
       <c r="G54" s="4" t="s">
         <v>141</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="17">
+      <c r="I54" s="4" t="str">
+        <f>LEFT(A54,5)</f>
+        <v>30/06</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="17">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -1897,18 +2599,18 @@
       <c r="E55" s="4">
         <v>54</v>
       </c>
-      <c r="F55" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>30/06</v>
-      </c>
       <c r="G55" s="4" t="s">
         <v>143</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="17">
+      <c r="I55" s="4" t="str">
+        <f>LEFT(A55,5)</f>
+        <v>30/06</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="17">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -1916,18 +2618,18 @@
       <c r="E56" s="4">
         <v>55</v>
       </c>
-      <c r="F56" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01/07</v>
-      </c>
       <c r="G56" s="4" t="s">
         <v>145</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="17">
+      <c r="I56" s="4" t="str">
+        <f>LEFT(A56,5)</f>
+        <v>01/07</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="17">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -1935,18 +2637,18 @@
       <c r="E57" s="4">
         <v>56</v>
       </c>
-      <c r="F57" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>01/07</v>
-      </c>
       <c r="G57" s="4" t="s">
         <v>147</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="17">
+      <c r="I57" s="4" t="str">
+        <f>LEFT(A57,5)</f>
+        <v>01/07</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="17">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -1956,18 +2658,18 @@
       <c r="E58" s="3">
         <v>57</v>
       </c>
-      <c r="F58" s="3" t="str">
-        <f t="shared" ref="F58:F65" si="1">LEFT(A58,5)</f>
-        <v>04/07</v>
-      </c>
       <c r="G58" s="3">
         <v>49</v>
       </c>
       <c r="H58" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="17">
+      <c r="I58" s="3" t="str">
+        <f>LEFT(A58,5)</f>
+        <v>04/07</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="17">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -1975,18 +2677,18 @@
       <c r="E59" s="3">
         <v>58</v>
       </c>
-      <c r="F59" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>04/07</v>
-      </c>
       <c r="G59" s="3">
         <v>53</v>
       </c>
       <c r="H59" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="17">
+      <c r="I59" s="3" t="str">
+        <f>LEFT(A59,5)</f>
+        <v>04/07</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="17">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -1994,18 +2696,18 @@
       <c r="E60" s="3">
         <v>59</v>
       </c>
-      <c r="F60" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>05/07</v>
-      </c>
       <c r="G60" s="3">
         <v>51</v>
       </c>
       <c r="H60" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="17">
+      <c r="I60" s="3" t="str">
+        <f>LEFT(A60,5)</f>
+        <v>05/07</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="17">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -2013,18 +2715,18 @@
       <c r="E61" s="3">
         <v>60</v>
       </c>
-      <c r="F61" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>05/07</v>
-      </c>
       <c r="G61" s="3">
         <v>55</v>
       </c>
       <c r="H61" s="3">
         <v>56</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="17">
+      <c r="I61" s="3" t="str">
+        <f>LEFT(A61,5)</f>
+        <v>05/07</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="17">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -2034,18 +2736,18 @@
       <c r="E62" s="4">
         <v>61</v>
       </c>
-      <c r="F62" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>08/07</v>
-      </c>
       <c r="G62" s="4">
         <v>57</v>
       </c>
       <c r="H62" s="4">
         <v>58</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="17">
+      <c r="I62" s="4" t="str">
+        <f>LEFT(A62,5)</f>
+        <v>08/07</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="17">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -2053,18 +2755,18 @@
       <c r="E63" s="4">
         <v>62</v>
       </c>
-      <c r="F63" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>09/07</v>
-      </c>
       <c r="G63" s="4">
         <v>59</v>
       </c>
       <c r="H63" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="17">
+      <c r="I63" s="4" t="str">
+        <f>LEFT(A63,5)</f>
+        <v>09/07</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="17">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -2074,18 +2776,18 @@
       <c r="E64" s="5">
         <v>63</v>
       </c>
-      <c r="F64" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>12/07</v>
-      </c>
       <c r="G64" s="5" t="s">
         <v>156</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="17">
+      <c r="I64" s="5" t="str">
+        <f>LEFT(A64,5)</f>
+        <v>12/07</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="17">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -2095,19 +2797,20 @@
       <c r="E65" s="6">
         <v>64</v>
       </c>
-      <c r="F65" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>13/07</v>
-      </c>
       <c r="G65" s="6" t="s">
         <v>154</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>155</v>
       </c>
+      <c r="I65" s="6" t="str">
+        <f>LEFT(A65,5)</f>
+        <v>13/07</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
